--- a/RPA Challenge.xlsx
+++ b/RPA Challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sramadoss8\Downloads\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E964D7-E192-4E37-95D5-175D9034D61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81313E45-647D-4325-8906-7C7C091E4AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.65"/>
